--- a/usepa_omega2_gui/elements/plot_definition.xlsx
+++ b/usepa_omega2_gui/elements/plot_definition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/cherry_jeff_epa_gov/Documents/Documents/Jeff Documents/GitHub/EPA_OMEGA_Model/usepa_omega2_gui/elements/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff\PycharmProjects\EPA_OMEGA_Model\usepa_omega2_gui\elements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="8_{9330495C-95A5-4B9D-B57E-E082821BB1A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E11B2E0E-D28E-4D01-9DE3-32DB61072712}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C3ADDA-BC50-45DD-8028-7074F05EB325}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="2370" windowWidth="21600" windowHeight="11385" xr2:uid="{1149EACD-E4EC-42C7-85D4-D699479F2FB1}"/>
+    <workbookView xWindow="4035" yWindow="675" windowWidth="18735" windowHeight="13695" xr2:uid="{1149EACD-E4EC-42C7-85D4-D699479F2FB1}"/>
   </bookViews>
   <sheets>
     <sheet name="plot_definition" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>plot_name</t>
   </si>
@@ -120,6 +120,63 @@
   </si>
   <si>
     <t>ice_hauling_share_frac</t>
+  </si>
+  <si>
+    <t>average_hauling_cost</t>
+  </si>
+  <si>
+    <t>average_hauling_co2_gpmi</t>
+  </si>
+  <si>
+    <t>average_non hauling_cost</t>
+  </si>
+  <si>
+    <t>average_non hauling_co2_gpmi</t>
+  </si>
+  <si>
+    <t>average_vehicle_cost</t>
+  </si>
+  <si>
+    <t>average_vehicle_co2_gpmi</t>
+  </si>
+  <si>
+    <t>average_non hauling.BEV_co2_gpmi</t>
+  </si>
+  <si>
+    <t>average_non hauling.BEV_cost</t>
+  </si>
+  <si>
+    <t>average_hauling.BEV_co2_gpmi</t>
+  </si>
+  <si>
+    <t>average_hauling.BEV_cost</t>
+  </si>
+  <si>
+    <t>average_non hauling.ICE_co2_gpmi</t>
+  </si>
+  <si>
+    <t>average_non hauling.ICE_cost</t>
+  </si>
+  <si>
+    <t>average_hauling.ICE_co2_gpmi</t>
+  </si>
+  <si>
+    <t>average_hauling.ICE_cost</t>
+  </si>
+  <si>
+    <t>Average Vehicle Cost</t>
+  </si>
+  <si>
+    <t>Average Vehicle CO2</t>
+  </si>
+  <si>
+    <t>Vehicle Share (%)</t>
+  </si>
+  <si>
+    <t>Average Vehicle Cost ($)</t>
+  </si>
+  <si>
+    <t>Average Vehicle CO2 (g/mi)</t>
   </si>
 </sst>
 </file>
@@ -471,20 +528,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B510F6-B55D-4452-83AB-74067DABEF8D}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="47.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" customWidth="1"/>
+    <col min="9" max="9" width="29.5703125" customWidth="1"/>
+    <col min="10" max="10" width="31.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
     <col min="15" max="15" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -589,7 +651,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
@@ -602,6 +664,82 @@
       </c>
       <c r="I4" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1060,20 +1198,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
@@ -1114,6 +1238,20 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC4F978F-7070-4556-8605-606328C091BC}">
   <ds:schemaRefs>
@@ -1138,22 +1276,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8413B036-61AA-44F6-BDF2-A82F12192AEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8FCF5EA-64F6-4C39-B2C0-6550C9FC19C7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E08DA9B3-6D66-46AF-A9FD-A6FB3063D1BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -1172,4 +1294,20 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8FCF5EA-64F6-4C39-B2C0-6550C9FC19C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8413B036-61AA-44F6-BDF2-A82F12192AEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/usepa_omega2_gui/elements/plot_definition.xlsx
+++ b/usepa_omega2_gui/elements/plot_definition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff\PycharmProjects\EPA_OMEGA_Model\usepa_omega2_gui\elements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcherr01\OneDrive - Environmental Protection Agency (EPA)\Documents\Jeff Documents\GitHub\EPA_OMEGA_Model\usepa_omega2_gui\elements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C3ADDA-BC50-45DD-8028-7074F05EB325}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="6_{87C13B32-4AFE-4E48-9884-56C0EF8529B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="675" windowWidth="18735" windowHeight="13695" xr2:uid="{1149EACD-E4EC-42C7-85D4-D699479F2FB1}"/>
+    <workbookView xWindow="5160" yWindow="2715" windowWidth="21600" windowHeight="11385" xr2:uid="{1149EACD-E4EC-42C7-85D4-D699479F2FB1}"/>
   </bookViews>
   <sheets>
     <sheet name="plot_definition" sheetId="1" r:id="rId1"/>
@@ -531,7 +531,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,7 +599,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -611,15 +611,33 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -631,15 +649,33 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -651,24 +687,15 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -680,33 +707,15 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -718,37 +727,72 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O6">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Records_x0020_Status xmlns="ec061f95-30ec-4d0d-8ad6-dd1b804a05b6">Pending</Records_x0020_Status>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-12-01T17:41:36+00:00</Document_x0020_Creation_x0020_Date>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <Records_x0020_Date xmlns="ec061f95-30ec-4d0d-8ad6-dd1b804a05b6" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100236F3575DF470B419B4DB442F40CDE7D" ma:contentTypeVersion="34" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ae201bdba98d726bd807d2fe594a89ed">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns4="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns5="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns6="ec061f95-30ec-4d0d-8ad6-dd1b804a05b6" xmlns:ns7="91e00635-787f-483b-bfc8-b255474b55dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1317da7de9d983948048aa92f0de793e" ns1:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="" ns7:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1197,48 +1241,12 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Records_x0020_Status xmlns="ec061f95-30ec-4d0d-8ad6-dd1b804a05b6">Pending</Records_x0020_Status>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-12-01T17:41:36+00:00</Document_x0020_Creation_x0020_Date>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <Records_x0020_Date xmlns="ec061f95-30ec-4d0d-8ad6-dd1b804a05b6" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1247,12 +1255,28 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E08DA9B3-6D66-46AF-A9FD-A6FB3063D1BC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="91e00635-787f-483b-bfc8-b255474b55dc"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="ec061f95-30ec-4d0d-8ad6-dd1b804a05b6"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC4F978F-7070-4556-8605-606328C091BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1275,39 +1299,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E08DA9B3-6D66-46AF-A9FD-A6FB3063D1BC}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8413B036-61AA-44F6-BDF2-A82F12192AEF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="91e00635-787f-483b-bfc8-b255474b55dc"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="ec061f95-30ec-4d0d-8ad6-dd1b804a05b6"/>
-    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8FCF5EA-64F6-4C39-B2C0-6550C9FC19C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8413B036-61AA-44F6-BDF2-A82F12192AEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/usepa_omega2_gui/elements/plot_definition.xlsx
+++ b/usepa_omega2_gui/elements/plot_definition.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcherr01\OneDrive - Environmental Protection Agency (EPA)\Documents\Jeff Documents\GitHub\EPA_OMEGA_Model\usepa_omega2_gui\elements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/cherry_jeff_epa_gov/Documents/Documents/Jeff Documents/GitHub/EPA_OMEGA_Model/usepa_omega2_gui/elements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="6_{87C13B32-4AFE-4E48-9884-56C0EF8529B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="6_{87C13B32-4AFE-4E48-9884-56C0EF8529B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D1AC35A2-1A88-4E6C-9E96-CC5087D78941}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="2715" windowWidth="21600" windowHeight="11385" xr2:uid="{1149EACD-E4EC-42C7-85D4-D699479F2FB1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1149EACD-E4EC-42C7-85D4-D699479F2FB1}"/>
   </bookViews>
   <sheets>
     <sheet name="plot_definition" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>plot_name</t>
   </si>
@@ -128,9 +128,6 @@
     <t>average_hauling_co2_gpmi</t>
   </si>
   <si>
-    <t>average_non hauling_cost</t>
-  </si>
-  <si>
     <t>average_non hauling_co2_gpmi</t>
   </si>
   <si>
@@ -140,30 +137,6 @@
     <t>average_vehicle_co2_gpmi</t>
   </si>
   <si>
-    <t>average_non hauling.BEV_co2_gpmi</t>
-  </si>
-  <si>
-    <t>average_non hauling.BEV_cost</t>
-  </si>
-  <si>
-    <t>average_hauling.BEV_co2_gpmi</t>
-  </si>
-  <si>
-    <t>average_hauling.BEV_cost</t>
-  </si>
-  <si>
-    <t>average_non hauling.ICE_co2_gpmi</t>
-  </si>
-  <si>
-    <t>average_non hauling.ICE_cost</t>
-  </si>
-  <si>
-    <t>average_hauling.ICE_co2_gpmi</t>
-  </si>
-  <si>
-    <t>average_hauling.ICE_cost</t>
-  </si>
-  <si>
     <t>Average Vehicle Cost</t>
   </si>
   <si>
@@ -177,6 +150,30 @@
   </si>
   <si>
     <t>Average Vehicle CO2 (g/mi)</t>
+  </si>
+  <si>
+    <t>average_cost_hauling.BEV</t>
+  </si>
+  <si>
+    <t>average_cost_hauling.ICE</t>
+  </si>
+  <si>
+    <t>average_cost_non hauling.BEV</t>
+  </si>
+  <si>
+    <t>average_cost_non hauling.ICE</t>
+  </si>
+  <si>
+    <t>average_co2_gpmi_hauling.BEV</t>
+  </si>
+  <si>
+    <t>average_co2_gpmi_hauling.ICE</t>
+  </si>
+  <si>
+    <t>average_co2_gpmi_non hauling.BEV</t>
+  </si>
+  <si>
+    <t>average_co2_gpmi_non hauling.ICE</t>
   </si>
 </sst>
 </file>
@@ -531,7 +528,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+      <selection activeCell="A9" sqref="A9:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,11 +539,12 @@
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
     <col min="5" max="5" width="25.42578125" customWidth="1"/>
     <col min="6" max="6" width="27.140625" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1"/>
     <col min="8" max="8" width="27.42578125" customWidth="1"/>
-    <col min="9" max="9" width="29.5703125" customWidth="1"/>
+    <col min="9" max="9" width="38.85546875" customWidth="1"/>
     <col min="10" max="10" width="31.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="32.5703125" customWidth="1"/>
+    <col min="12" max="12" width="26.7109375" customWidth="1"/>
     <col min="15" max="15" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -599,7 +597,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -611,33 +609,33 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -649,28 +647,28 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" t="s">
         <v>40</v>
-      </c>
-      <c r="L3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -727,7 +725,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
         <v>25</v>
@@ -743,7 +741,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H6">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -752,47 +750,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Records_x0020_Status xmlns="ec061f95-30ec-4d0d-8ad6-dd1b804a05b6">Pending</Records_x0020_Status>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-12-01T17:41:36+00:00</Document_x0020_Creation_x0020_Date>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <Records_x0020_Date xmlns="ec061f95-30ec-4d0d-8ad6-dd1b804a05b6" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100236F3575DF470B419B4DB442F40CDE7D" ma:contentTypeVersion="34" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ae201bdba98d726bd807d2fe594a89ed">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns4="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns5="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns6="ec061f95-30ec-4d0d-8ad6-dd1b804a05b6" xmlns:ns7="91e00635-787f-483b-bfc8-b255474b55dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1317da7de9d983948048aa92f0de793e" ns1:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="" ns7:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1241,42 +1212,64 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Records_x0020_Status xmlns="ec061f95-30ec-4d0d-8ad6-dd1b804a05b6">Pending</Records_x0020_Status>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-12-01T17:41:36+00:00</Document_x0020_Creation_x0020_Date>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <Records_x0020_Date xmlns="ec061f95-30ec-4d0d-8ad6-dd1b804a05b6" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E08DA9B3-6D66-46AF-A9FD-A6FB3063D1BC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8FCF5EA-64F6-4C39-B2C0-6550C9FC19C7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="91e00635-787f-483b-bfc8-b255474b55dc"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="ec061f95-30ec-4d0d-8ad6-dd1b804a05b6"/>
-    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8413B036-61AA-44F6-BDF2-A82F12192AEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC4F978F-7070-4556-8605-606328C091BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1299,18 +1292,23 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8413B036-61AA-44F6-BDF2-A82F12192AEF}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E08DA9B3-6D66-46AF-A9FD-A6FB3063D1BC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8FCF5EA-64F6-4C39-B2C0-6550C9FC19C7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="91e00635-787f-483b-bfc8-b255474b55dc"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="ec061f95-30ec-4d0d-8ad6-dd1b804a05b6"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>